--- a/chats/status@broadcast@c.us.xlsx
+++ b/chats/status@broadcast@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,6 +29,57 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>08-12-2021 10:54</t>
+  </si>
+  <si>
+    <t>AMOOOOO</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:13</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:15</t>
+  </si>
+  <si>
+    <t>⛳️</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:48</t>
+  </si>
+  <si>
+    <t>Morenita hermosa, gracias por tantas bendiciones🥰</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:50</t>
+  </si>
+  <si>
+    <t>⛳️🖤</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:10</t>
+  </si>
+  <si>
+    <t>🎁 🤣</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:19</t>
+  </si>
+  <si>
+    <t>🎁🎁🥵</t>
+  </si>
+  <si>
+    <t>11-12-2021 12:48</t>
+  </si>
+  <si>
+    <t>🐷</t>
+  </si>
+  <si>
+    <t>11-12-2021 02:19</t>
+  </si>
+  <si>
+    <t>Bien derrotada u.u</t>
   </si>
 </sst>
 </file>
@@ -405,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,8 +481,80 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/chats/status@broadcast@c.us.xlsx
+++ b/chats/status@broadcast@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>14-12-2021 12:00</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:16</t>
+  </si>
+  <si>
+    <t>Para los que no sabían, tengo dos hijos y bien chulos🥴💗</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:28</t>
+  </si>
+  <si>
+    <t>Mi pequeño unicornio 🥰💗</t>
   </si>
 </sst>
 </file>
@@ -405,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,8 +445,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/chats/status@broadcast@c.us.xlsx
+++ b/chats/status@broadcast@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Fecha</t>
   </si>
@@ -22,64 +22,16 @@
     <t>Paso</t>
   </si>
   <si>
-    <t>07-12-2021 11:42</t>
-  </si>
-  <si>
-    <t>🥲</t>
+    <t>06-01-2022 12:18</t>
+  </si>
+  <si>
+    <t>La mejor ❤️❤️❤️</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>08-12-2021 10:54</t>
-  </si>
-  <si>
-    <t>AMOOOOO</t>
-  </si>
-  <si>
-    <t>10-12-2021 09:13</t>
-  </si>
-  <si>
-    <t>10-12-2021 09:15</t>
-  </si>
-  <si>
-    <t>⛳️</t>
-  </si>
-  <si>
-    <t>10-12-2021 10:48</t>
-  </si>
-  <si>
-    <t>Morenita hermosa, gracias por tantas bendiciones🥰</t>
-  </si>
-  <si>
-    <t>10-12-2021 10:50</t>
-  </si>
-  <si>
-    <t>⛳️🖤</t>
-  </si>
-  <si>
-    <t>10-12-2021 11:10</t>
-  </si>
-  <si>
-    <t>🎁 🤣</t>
-  </si>
-  <si>
-    <t>10-12-2021 11:19</t>
-  </si>
-  <si>
-    <t>🎁🎁🥵</t>
-  </si>
-  <si>
-    <t>11-12-2021 12:48</t>
-  </si>
-  <si>
-    <t>🐷</t>
-  </si>
-  <si>
-    <t>11-12-2021 02:19</t>
-  </si>
-  <si>
-    <t>Bien derrotada u.u</t>
+    <t>06-01-2022 12:54</t>
   </si>
 </sst>
 </file>
@@ -456,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,71 +438,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
